--- a/biology/Médecine/Professeur_des_universités-praticien_hospitalier/Professeur_des_universités-praticien_hospitalier.xlsx
+++ b/biology/Médecine/Professeur_des_universités-praticien_hospitalier/Professeur_des_universités-praticien_hospitalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Professeur_des_universit%C3%A9s-praticien_hospitalier</t>
+          <t>Professeur_des_universités-praticien_hospitalier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur des universités - praticien hospitalier (PU-PH) est un statut de la fonction publique française d´État qui comprend les médecins, odontologistes, pharmaciens et scientifiques appartenant à la fois à une université et à un centre hospitalier universitaire (CHU) nommés à titre permanent.
 Il s'agit d'un statut mixte entre celui de professeur des universités (PU) du ministère de l'Enseignement supérieur et de la Recherche et celui de praticien hospitalier (PH) des établissements publics de santé. Dans ce double statut, c'est l'université qui est l'employeur principal des PU-PH. Elle acquitte en particulier les cotisations sociales sur la part universitaire de leur traitement. La rémunération de leur activité hospitalière fait l'objet d'un émolument hospitalier additionnel. La rémunération de ce corps de praticiens est fixée par des échelons comme pour tous les postes de la fonction publique (une grille universitaire et une grille hospitalière). Une activité libérale peut être autorisée par leur établissement.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Professeur_des_universit%C3%A9s-praticien_hospitalier</t>
+          <t>Professeur_des_universités-praticien_hospitalier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Décret no 2021-1645 du 13 décembre 2021 relatif au personnel enseignant et hospitalier des centres hospitaliers et universitaires
 Décret n° 2021-1646 du 13 décembre 2021 relatif à l'échelonnement indiciaire applicable au personnel enseignant et hospitalier des centres hospitaliers et universitaires
